--- a/medicine/Pharmacie/Pepto-Bismol/Pepto-Bismol.xlsx
+++ b/medicine/Pharmacie/Pepto-Bismol/Pepto-Bismol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pepto-Bismol est un médicament en vente libre produit par la compagnie nord-américaine Procter &amp; Gamble et destiné à soulager des malaises gastriques courants. Il a servi à guérir le choléra infantile au début du XXe siècle, sous le nom de Bismosal[1]. [réf. nécessaire] La couleur rose distinctive du Pepto-Bismol est attribuable à un simple colorant, et permet à la marque d'avoir une image facile à retenir. Son ingrédient actif, le sous-salicylate de bismuth, est présent à hauteur de 1,75 % en masse.  En tant que dérivé de l'acide salicylique, le sous-salicylate de bismuth a une action anti-inflammatoire[2] et bactéricide et agit également comme antiacide.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pepto-Bismol est un médicament en vente libre produit par la compagnie nord-américaine Procter &amp; Gamble et destiné à soulager des malaises gastriques courants. Il a servi à guérir le choléra infantile au début du XXe siècle, sous le nom de Bismosal. [réf. nécessaire] La couleur rose distinctive du Pepto-Bismol est attribuable à un simple colorant, et permet à la marque d'avoir une image facile à retenir. Son ingrédient actif, le sous-salicylate de bismuth, est présent à hauteur de 1,75 % en masse.  En tant que dérivé de l'acide salicylique, le sous-salicylate de bismuth a une action anti-inflammatoire et bactéricide et agit également comme antiacide.
 </t>
         </is>
       </c>
